--- a/NewResult.xlsx
+++ b/NewResult.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,46 +532,46 @@
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>27.5826</v>
+        <v>22.245</v>
       </c>
       <c r="F2" t="n">
         <v>650</v>
       </c>
       <c r="G2" t="n">
-        <v>41.4762</v>
+        <v>35.5291</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>52.25010000000001</v>
+        <v>41.836</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3693</v>
+        <v>112.5674</v>
       </c>
       <c r="K2" t="n">
-        <v>53.159</v>
+        <v>38.4147</v>
       </c>
       <c r="L2" t="n">
-        <v>1133.9311</v>
+        <v>1050.8788</v>
       </c>
       <c r="M2" t="n">
-        <v>5.7681</v>
+        <v>5.8149</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1763</v>
+        <v>137.8238</v>
       </c>
       <c r="O2" t="n">
         <v>138</v>
       </c>
       <c r="P2" t="n">
-        <v>2.23886</v>
+        <v>1.98277</v>
       </c>
       <c r="Q2" t="n">
         <v>1558</v>
       </c>
       <c r="R2" t="n">
-        <v>2.43742</v>
+        <v>3.07732</v>
       </c>
     </row>
   </sheetData>

--- a/NewResult.xlsx
+++ b/NewResult.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,46 +532,550 @@
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>22.245</v>
+        <v>24.0564</v>
       </c>
       <c r="F2" t="n">
         <v>650</v>
       </c>
       <c r="G2" t="n">
-        <v>35.5291</v>
+        <v>38.6392</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>41.836</v>
+        <v>46.9676</v>
       </c>
       <c r="J2" t="n">
-        <v>112.5674</v>
+        <v>112.322</v>
       </c>
       <c r="K2" t="n">
-        <v>38.4147</v>
+        <v>46.8886</v>
       </c>
       <c r="L2" t="n">
-        <v>1050.8788</v>
+        <v>1031.3065</v>
       </c>
       <c r="M2" t="n">
-        <v>5.8149</v>
+        <v>7.207199999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>137.8238</v>
+        <v>141.3209</v>
       </c>
       <c r="O2" t="n">
         <v>138</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98277</v>
+        <v>2.43466</v>
       </c>
       <c r="Q2" t="n">
         <v>1558</v>
       </c>
       <c r="R2" t="n">
-        <v>3.07732</v>
+        <v>3.45753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.5464</v>
+      </c>
+      <c r="F3" t="n">
+        <v>650</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41.05950000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53.48080000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>125.9377</v>
+      </c>
+      <c r="K3" t="n">
+        <v>54.76150000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1109.4574</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.415900000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>132.4232</v>
+      </c>
+      <c r="O3" t="n">
+        <v>138</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.12029</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.15419</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25.2127</v>
+      </c>
+      <c r="F4" t="n">
+        <v>650</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.8379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55.44949999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>152.1204</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.8144</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1471.8284</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.3689</v>
+      </c>
+      <c r="N4" t="n">
+        <v>158.1204</v>
+      </c>
+      <c r="O4" t="n">
+        <v>138</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.07459</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.21867</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25.396</v>
+      </c>
+      <c r="F5" t="n">
+        <v>650</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44.3914</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60.38140000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>167.5257</v>
+      </c>
+      <c r="K5" t="n">
+        <v>61.0645</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1610.6829</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.2276</v>
+      </c>
+      <c r="N5" t="n">
+        <v>189.727</v>
+      </c>
+      <c r="O5" t="n">
+        <v>138</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.13247</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.24975</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.5892</v>
+      </c>
+      <c r="F6" t="n">
+        <v>650</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47.4921</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>65.2405</v>
+      </c>
+      <c r="J6" t="n">
+        <v>203.5897</v>
+      </c>
+      <c r="K6" t="n">
+        <v>66.6906</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2085.1409</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.526400000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>218.6821</v>
+      </c>
+      <c r="O6" t="n">
+        <v>138</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.31209</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.2544</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25.9475</v>
+      </c>
+      <c r="F7" t="n">
+        <v>650</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50.9537</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>112.3799</v>
+      </c>
+      <c r="J7" t="n">
+        <v>250.5884</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81.94789999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2224.3651</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.7729</v>
+      </c>
+      <c r="N7" t="n">
+        <v>220.1824</v>
+      </c>
+      <c r="O7" t="n">
+        <v>138</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.03943</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.60822</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38.9115</v>
+      </c>
+      <c r="F8" t="n">
+        <v>650</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55.55239999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>74.6619</v>
+      </c>
+      <c r="J8" t="n">
+        <v>283.5565</v>
+      </c>
+      <c r="K8" t="n">
+        <v>95.76840000000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2879.8609</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.874300000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>258.9045</v>
+      </c>
+      <c r="O8" t="n">
+        <v>138</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.07665</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.20899</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>85</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.9002</v>
+      </c>
+      <c r="F9" t="n">
+        <v>650</v>
+      </c>
+      <c r="G9" t="n">
+        <v>57.7332</v>
+      </c>
+      <c r="H9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I9" t="n">
+        <v>79.4692</v>
+      </c>
+      <c r="J9" t="n">
+        <v>295.0628</v>
+      </c>
+      <c r="K9" t="n">
+        <v>138.2734</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3087.2367</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.6659</v>
+      </c>
+      <c r="N9" t="n">
+        <v>253.656</v>
+      </c>
+      <c r="O9" t="n">
+        <v>138</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.05587</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.72215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>90</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.3812</v>
+      </c>
+      <c r="F10" t="n">
+        <v>650</v>
+      </c>
+      <c r="G10" t="n">
+        <v>88.65110000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>36</v>
+      </c>
+      <c r="I10" t="n">
+        <v>111.0675</v>
+      </c>
+      <c r="J10" t="n">
+        <v>391.0291</v>
+      </c>
+      <c r="K10" t="n">
+        <v>92.875</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4002.9688</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.1353</v>
+      </c>
+      <c r="N10" t="n">
+        <v>309.8464</v>
+      </c>
+      <c r="O10" t="n">
+        <v>138</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.46415</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.50887</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>95</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.0018</v>
+      </c>
+      <c r="F11" t="n">
+        <v>650</v>
+      </c>
+      <c r="G11" t="n">
+        <v>75.05110000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>93.30539999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>407.8477999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>95.1532</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4019.0808</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.206799999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>308.027</v>
+      </c>
+      <c r="O11" t="n">
+        <v>138</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.41122</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1558</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.54303</v>
       </c>
     </row>
   </sheetData>

--- a/NewResult.xlsx
+++ b/NewResult.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,550 +532,46 @@
         <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>24.0564</v>
+        <v>41.8458</v>
       </c>
       <c r="F2" t="n">
         <v>650</v>
       </c>
       <c r="G2" t="n">
-        <v>38.6392</v>
+        <v>60.0324</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>46.9676</v>
+        <v>75.46119999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>112.322</v>
+        <v>209.9316</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8886</v>
+        <v>74.4335</v>
       </c>
       <c r="L2" t="n">
-        <v>1031.3065</v>
+        <v>1881.4617</v>
       </c>
       <c r="M2" t="n">
-        <v>7.207199999999999</v>
+        <v>11.3925</v>
       </c>
       <c r="N2" t="n">
-        <v>141.3209</v>
+        <v>251.51</v>
       </c>
       <c r="O2" t="n">
         <v>138</v>
       </c>
       <c r="P2" t="n">
-        <v>2.43466</v>
+        <v>4.28417</v>
       </c>
       <c r="Q2" t="n">
         <v>1558</v>
       </c>
       <c r="R2" t="n">
-        <v>3.45753</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26.5464</v>
-      </c>
-      <c r="F3" t="n">
-        <v>650</v>
-      </c>
-      <c r="G3" t="n">
-        <v>41.05950000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>53.48080000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>125.9377</v>
-      </c>
-      <c r="K3" t="n">
-        <v>54.76150000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1109.4574</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.415900000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>132.4232</v>
-      </c>
-      <c r="O3" t="n">
-        <v>138</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.12029</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.15419</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>60</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25.2127</v>
-      </c>
-      <c r="F4" t="n">
-        <v>650</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42.8379</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55.44949999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>152.1204</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55.8144</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1471.8284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.3689</v>
-      </c>
-      <c r="N4" t="n">
-        <v>158.1204</v>
-      </c>
-      <c r="O4" t="n">
-        <v>138</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.07459</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R4" t="n">
-        <v>3.21867</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>65</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25.396</v>
-      </c>
-      <c r="F5" t="n">
-        <v>650</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44.3914</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>60.38140000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>167.5257</v>
-      </c>
-      <c r="K5" t="n">
-        <v>61.0645</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1610.6829</v>
-      </c>
-      <c r="M5" t="n">
-        <v>6.2276</v>
-      </c>
-      <c r="N5" t="n">
-        <v>189.727</v>
-      </c>
-      <c r="O5" t="n">
-        <v>138</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.13247</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3.24975</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-      <c r="D6" t="n">
-        <v>70</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25.5892</v>
-      </c>
-      <c r="F6" t="n">
-        <v>650</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47.4921</v>
-      </c>
-      <c r="H6" t="n">
-        <v>28</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65.2405</v>
-      </c>
-      <c r="J6" t="n">
-        <v>203.5897</v>
-      </c>
-      <c r="K6" t="n">
-        <v>66.6906</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2085.1409</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.526400000000001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>218.6821</v>
-      </c>
-      <c r="O6" t="n">
-        <v>138</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.31209</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.2544</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>75</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>25.9475</v>
-      </c>
-      <c r="F7" t="n">
-        <v>650</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50.9537</v>
-      </c>
-      <c r="H7" t="n">
-        <v>30</v>
-      </c>
-      <c r="I7" t="n">
-        <v>112.3799</v>
-      </c>
-      <c r="J7" t="n">
-        <v>250.5884</v>
-      </c>
-      <c r="K7" t="n">
-        <v>81.94789999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2224.3651</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.7729</v>
-      </c>
-      <c r="N7" t="n">
-        <v>220.1824</v>
-      </c>
-      <c r="O7" t="n">
-        <v>138</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.03943</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.60822</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>80</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38.9115</v>
-      </c>
-      <c r="F8" t="n">
-        <v>650</v>
-      </c>
-      <c r="G8" t="n">
-        <v>55.55239999999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>32</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74.6619</v>
-      </c>
-      <c r="J8" t="n">
-        <v>283.5565</v>
-      </c>
-      <c r="K8" t="n">
-        <v>95.76840000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2879.8609</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7.874300000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>258.9045</v>
-      </c>
-      <c r="O8" t="n">
-        <v>138</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.07665</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R8" t="n">
-        <v>7.20899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>85</v>
-      </c>
-      <c r="D9" t="n">
-        <v>85</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24.9002</v>
-      </c>
-      <c r="F9" t="n">
-        <v>650</v>
-      </c>
-      <c r="G9" t="n">
-        <v>57.7332</v>
-      </c>
-      <c r="H9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I9" t="n">
-        <v>79.4692</v>
-      </c>
-      <c r="J9" t="n">
-        <v>295.0628</v>
-      </c>
-      <c r="K9" t="n">
-        <v>138.2734</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3087.2367</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.6659</v>
-      </c>
-      <c r="N9" t="n">
-        <v>253.656</v>
-      </c>
-      <c r="O9" t="n">
-        <v>138</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.05587</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.72215</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>90</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.3812</v>
-      </c>
-      <c r="F10" t="n">
-        <v>650</v>
-      </c>
-      <c r="G10" t="n">
-        <v>88.65110000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>36</v>
-      </c>
-      <c r="I10" t="n">
-        <v>111.0675</v>
-      </c>
-      <c r="J10" t="n">
-        <v>391.0291</v>
-      </c>
-      <c r="K10" t="n">
-        <v>92.875</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4002.9688</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7.1353</v>
-      </c>
-      <c r="N10" t="n">
-        <v>309.8464</v>
-      </c>
-      <c r="O10" t="n">
-        <v>138</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.46415</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.50887</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>95</v>
-      </c>
-      <c r="D11" t="n">
-        <v>95</v>
-      </c>
-      <c r="E11" t="n">
-        <v>28.0018</v>
-      </c>
-      <c r="F11" t="n">
-        <v>650</v>
-      </c>
-      <c r="G11" t="n">
-        <v>75.05110000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>38</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93.30539999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>407.8477999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>95.1532</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4019.0808</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7.206799999999999</v>
-      </c>
-      <c r="N11" t="n">
-        <v>308.027</v>
-      </c>
-      <c r="O11" t="n">
-        <v>138</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.41122</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1558</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.54303</v>
+        <v>13.86456</v>
       </c>
     </row>
   </sheetData>
